--- a/urls.xlsx
+++ b/urls.xlsx
@@ -1,85 +1,58 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jxb-api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81C3F77F-B5C3-4786-BF55-121EC54F2224}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51DD0DCC-4311-43C3-A024-3B51FF0A395F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{88EEFC20-64D2-4D52-BB51-1DC417AA4E55}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="用户" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>uri</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>参数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>admin_login</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>post</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>/login</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>{"admin": "admin", "password": "admin@123"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_list</t>
+  </si>
+  <si>
+    <t>get</t>
   </si>
   <si>
     <t>/user/users</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>get</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_list</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -94,26 +67,77 @@
         'condition': None,
         'departmentId': None
     }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>add_user</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/user/add</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"userInfo": {"name": "test", "password": "12345678",
+                     "nickName": "",
+                     "departmentId": "2",
+                     "isPublicAccount": False,
+                     "isDynamicAuth": False, "accountIdleType": 1, "accountIdleTime": 1, "maxIdleLimitDay": 0,
+                     "accountEffectType": 1, "accountEffectTime": 1, "accountEffectStartTime": "",
+                     "accountEffectEndTime": "",
+                     "state": 0,
+                     "phone": "", "inheritModes": [0, 2],
+                     "authType": 1,
+                     "authMode": 0, "isSmAuth": False,
+                     "mainAuthModes": [],
+                     "enhanceAuthModes": [],
+                     "userClientEffectType": 1, "userClientType": 0, "remarks": ""},
+        "enterPolicyIds": [],
+        "accessPolicyIds": []}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>del_user</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/user/batchDelete</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PUT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"ids": ["01ecb528b34f47c499358c17d4409937"]}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="宋体"/>
       <family val="2"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="9"/>
-      <name val="等线"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -126,7 +150,14 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -136,23 +167,28 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-  </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -165,7 +201,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -199,20 +235,20 @@
         <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -240,31 +276,14 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -292,23 +311,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -320,203 +322,257 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
                 <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="9500"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:tint val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{893AB959-2F28-41DC-ABAF-7B9C465EF7FF}">
-  <dimension ref="A1:D3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="3" width="13.75" customWidth="1"/>
-    <col min="4" max="4" width="41.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.125" customWidth="1"/>
+    <col min="4" max="4" width="42" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="171" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="3" spans="1:4" ht="159" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="108" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/urls.xlsx
+++ b/urls.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jxb-api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51DD0DCC-4311-43C3-A024-3B51FF0A395F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{916D7875-0BD8-4EFE-B93F-77A76DBA131A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,9 +43,6 @@
     <t>/login</t>
   </si>
   <si>
-    <t>{"admin": "admin", "password": "admin@123"}</t>
-  </si>
-  <si>
     <t>user_list</t>
   </si>
   <si>
@@ -53,66 +50,49 @@
   </si>
   <si>
     <t>/user/users</t>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>add_user</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/user/add</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>del_user</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/user/batchDelete</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>{
         'page': 1,
         'pageSize': 100,
-        'orderType': 'desc',
-        'orderName': 'updatedAt',
-        'userClientType[]': None,
-        'userSource[]': None,
-        'state[]': None,
-        'authMode[]': None,
-        'condition': None,
-        'departmentId': None
+        'filter': None,
     }</t>
-  </si>
-  <si>
-    <t>POST</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>add_user</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/user/add</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"userInfo": {"name": "test", "password": "12345678",
-                     "nickName": "",
-                     "departmentId": "2",
-                     "isPublicAccount": False,
-                     "isDynamicAuth": False, "accountIdleType": 1, "accountIdleTime": 1, "maxIdleLimitDay": 0,
-                     "accountEffectType": 1, "accountEffectTime": 1, "accountEffectStartTime": "",
-                     "accountEffectEndTime": "",
-                     "state": 0,
-                     "phone": "", "inheritModes": [0, 2],
-                     "authType": 1,
-                     "authMode": 0, "isSmAuth": False,
-                     "mainAuthModes": [],
-                     "enhanceAuthModes": [],
-                     "userClientEffectType": 1, "userClientType": 0, "remarks": ""},
-        "enterPolicyIds": [],
-        "accessPolicyIds": []}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>del_user</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/user/batchDelete</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PUT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"ids": ["01ecb528b34f47c499358c17d4409937"]}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"ids": [""]}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"userInfo": {"name": "test", "password": "12345678","role": 0}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name": "admin", "password": "1234"}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -169,7 +149,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -179,9 +159,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -491,7 +468,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -526,49 +503,49 @@
         <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" ht="159" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="1" t="s">
+    <row r="4" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="108" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="D4" s="3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
